--- a/DATA_FILES/X_TEST_EXCEL_CREATE.xlsx
+++ b/DATA_FILES/X_TEST_EXCEL_CREATE.xlsx
@@ -38,18 +38,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00FF00FF"/>
-        <bgColor rgb="00FF00FF"/>
+        <fgColor rgb="00FFFF00"/>
+        <bgColor rgb="00FFFF00"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="0000FF00"/>
-        <bgColor rgb="0000FF00"/>
+        <fgColor rgb="0099CCFF"/>
+        <bgColor rgb="0099CCFF"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -63,6 +63,12 @@
       <top style="thin"/>
       <bottom style="thin"/>
     </border>
+    <border>
+      <left style="thick"/>
+      <right style="thick"/>
+      <top style="thick"/>
+      <bottom style="thick"/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -72,27 +78,27 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -544,17 +550,17 @@
       </c>
       <c r="B2" s="6" t="inlineStr">
         <is>
-          <t>MR.</t>
+          <t>Mr.</t>
         </is>
       </c>
       <c r="C2" s="6" t="inlineStr">
         <is>
-          <t>ALAN</t>
+          <t>Alan</t>
         </is>
       </c>
       <c r="D2" s="6" t="inlineStr">
         <is>
-          <t>NISHIHARA</t>
+          <t>Nishihara</t>
         </is>
       </c>
       <c r="E2" s="7" t="inlineStr">
@@ -566,19 +572,19 @@
         <v>4</v>
       </c>
       <c r="G2" s="7" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H2" s="6" t="n">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="I2" s="6" t="n">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="J2" s="6" t="n">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="K2" s="6" t="n">
-        <v>100</v>
+        <v>95</v>
       </c>
     </row>
     <row r="3">
